--- a/gip timingtabel.xlsx
+++ b/gip timingtabel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\OneDrive - PROVIL ION\school\24-25\Gip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4386465-8D67-4366-B824-73772F600729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03125A09-33B6-4A0F-8F6B-79B4037410F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>Leerling:</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>tbd = to be determined</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,36 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -618,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBD9DDF-9A40-48FC-931F-B7F2BC064616}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,6 +743,18 @@
       <c r="F9" s="4">
         <v>45678</v>
       </c>
+      <c r="G9" s="4">
+        <v>45678</v>
+      </c>
+      <c r="H9" s="4">
+        <v>45678</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
@@ -724,6 +768,18 @@
       <c r="F10" s="4">
         <v>45678</v>
       </c>
+      <c r="G10" s="4">
+        <v>45678</v>
+      </c>
+      <c r="H10" s="4">
+        <v>45678</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
@@ -737,6 +793,18 @@
       <c r="F11" s="4">
         <v>45678</v>
       </c>
+      <c r="G11" s="4">
+        <v>45678</v>
+      </c>
+      <c r="H11" s="4">
+        <v>45678</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
@@ -749,6 +817,18 @@
       </c>
       <c r="F12" s="4">
         <v>45678</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45678</v>
+      </c>
+      <c r="H12" s="4">
+        <v>45678</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1122,6 +1202,11 @@
       <c r="D66" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J9:J218">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$J9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gip timingtabel.xlsx
+++ b/gip timingtabel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\OneDrive - PROVIL ION\school\24-25\Gip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03125A09-33B6-4A0F-8F6B-79B4037410F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9AD6DC-9CF4-41A9-817A-D09CA462D6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Leerling:</t>
   </si>
@@ -80,9 +80,6 @@
     <t>20 min</t>
   </si>
   <si>
-    <t>Verbinding maken</t>
-  </si>
-  <si>
     <t>10 min</t>
   </si>
   <si>
@@ -216,6 +213,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>verbinding maken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbinden met database </t>
   </si>
 </sst>
 </file>
@@ -648,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBD9DDF-9A40-48FC-931F-B7F2BC064616}">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +672,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -680,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -702,22 +705,22 @@
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -750,10 +753,10 @@
         <v>45678</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -775,10 +778,10 @@
         <v>45678</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -800,10 +803,10 @@
         <v>45678</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -825,10 +828,10 @@
         <v>45678</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -841,33 +844,57 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="4">
         <v>45678</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45678</v>
+      </c>
+      <c r="H14" s="4">
+        <v>45678</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="4">
         <v>45678</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45678</v>
+      </c>
+      <c r="H15" s="4">
+        <v>45678</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" t="s">
@@ -876,33 +903,45 @@
       <c r="F16" s="4">
         <v>45678</v>
       </c>
+      <c r="G16" s="4">
+        <v>45678</v>
+      </c>
+      <c r="H16" s="4">
+        <v>45678</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" s="1"/>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4">
+        <v>45684</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
@@ -911,7 +950,10 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -921,175 +963,176 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1097,18 +1140,22 @@
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -1201,8 +1248,18 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J9:J218">
+  <conditionalFormatting sqref="J9:J220">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$J9="x"</formula>
     </cfRule>

--- a/gip timingtabel.xlsx
+++ b/gip timingtabel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\OneDrive - PROVIL ION\school\24-25\Gip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9AD6DC-9CF4-41A9-817A-D09CA462D6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DB166A-0905-488A-AF75-E3C3A47E84DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>Leerling:</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Home pagina maken</t>
   </si>
   <si>
-    <t>Verbinden met Dashboards</t>
-  </si>
-  <si>
     <t>Backend</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>Oefen online betaling maken</t>
   </si>
   <si>
-    <t>1u</t>
-  </si>
-  <si>
     <t>2u</t>
   </si>
   <si>
@@ -219,6 +213,36 @@
   </si>
   <si>
     <t xml:space="preserve">verbinden met database </t>
+  </si>
+  <si>
+    <t>home pagina designen</t>
+  </si>
+  <si>
+    <t>Zorgen dat je kunt inloggen</t>
+  </si>
+  <si>
+    <t>Verbinding met dashboards maken</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>ganse 3 uur</t>
+  </si>
+  <si>
+    <t>2 uur</t>
+  </si>
+  <si>
+    <t>Inlog en uitlog maken</t>
+  </si>
+  <si>
+    <t>1 uur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beheer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">beheer pagina maken </t>
   </si>
 </sst>
 </file>
@@ -292,28 +316,7 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -651,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBD9DDF-9A40-48FC-931F-B7F2BC064616}">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -756,7 +759,7 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -781,7 +784,7 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -806,7 +809,7 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -831,7 +834,7 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -863,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -888,13 +891,13 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" t="s">
@@ -913,13 +916,13 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
@@ -928,269 +931,391 @@
       <c r="F17" s="4">
         <v>45684</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="4">
+        <v>45679</v>
+      </c>
+      <c r="H17" s="4">
+        <v>45679</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
+      <c r="F19" s="4">
+        <v>45684</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45684</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45685</v>
+      </c>
+      <c r="H20" s="4">
+        <v>45685</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
+      <c r="F21" s="4">
+        <v>45685</v>
+      </c>
+      <c r="G21" s="4">
+        <v>45685</v>
+      </c>
+      <c r="H21" s="4">
+        <v>45685</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F22" s="4">
+        <v>45684</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45684</v>
+      </c>
+      <c r="H22" s="4">
+        <v>45685</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4">
+        <v>45684</v>
+      </c>
+      <c r="G23" s="4">
+        <v>45685</v>
+      </c>
+      <c r="H23" s="4">
+        <v>45685</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="1"/>
+      <c r="F24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="4">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="4">
+        <v>45684</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="4">
+        <v>45684</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="1"/>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="1"/>
+      <c r="B52" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -1258,8 +1383,43 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J9:J220">
+  <conditionalFormatting sqref="J9:J227">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$J9="x"</formula>
     </cfRule>

--- a/gip timingtabel.xlsx
+++ b/gip timingtabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\OneDrive - PROVIL ION\school\24-25\Gip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DB166A-0905-488A-AF75-E3C3A47E84DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC5240C-70E8-4059-BFAA-7249DC687C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
   <si>
     <t>Leerling:</t>
   </si>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t xml:space="preserve">beheer pagina maken </t>
+  </si>
+  <si>
+    <t>Voertuig pagina maken</t>
+  </si>
+  <si>
+    <t>zorgen dat je een voertuig kunt ingeven</t>
+  </si>
+  <si>
+    <t>voertuigen aan gebruikers koppelen</t>
+  </si>
+  <si>
+    <t>40 min</t>
   </si>
 </sst>
 </file>
@@ -654,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBD9DDF-9A40-48FC-931F-B7F2BC064616}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1063,70 +1075,95 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D24" s="1"/>
-      <c r="F24" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="4">
+        <v>45688</v>
+      </c>
+      <c r="G25" s="4">
+        <v>45688</v>
+      </c>
+      <c r="H25" s="4">
+        <v>45688</v>
+      </c>
+      <c r="I25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F26" s="4">
-        <v>45685</v>
+        <v>45688</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45688</v>
+      </c>
+      <c r="H26" s="4">
+        <v>45688</v>
+      </c>
+      <c r="I26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="4">
-        <v>45688</v>
-      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
         <v>53</v>
       </c>
-      <c r="F28" t="s">
-        <v>54</v>
+      <c r="F28" s="4">
+        <v>45685</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
       <c r="F29" s="4">
-        <v>45684</v>
-      </c>
-      <c r="G29" t="s">
-        <v>63</v>
+        <v>45688</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
@@ -1135,11 +1172,17 @@
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1"/>
       <c r="F31" s="4">
@@ -1153,160 +1196,166 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="F33" s="4">
+        <v>45684</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
+      <c r="D35" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="5" t="s">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="1"/>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1314,18 +1363,22 @@
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -1418,8 +1471,18 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J9:J227">
+  <conditionalFormatting sqref="J9:J229">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$J9="x"</formula>
     </cfRule>

--- a/gip timingtabel.xlsx
+++ b/gip timingtabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\OneDrive - PROVIL ION\school\24-25\Gip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC5240C-70E8-4059-BFAA-7249DC687C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E556E7B-C1CB-4B8A-8963-27C225F5EACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="81">
   <si>
     <t>Leerling:</t>
   </si>
@@ -113,9 +113,6 @@
     <t xml:space="preserve">Frontend </t>
   </si>
   <si>
-    <t>Dashboard voor reserveringen maken</t>
-  </si>
-  <si>
     <t>Dashboard voor beheer maken</t>
   </si>
   <si>
@@ -125,12 +122,6 @@
     <t>Afwerken</t>
   </si>
   <si>
-    <t>Kleurcode voor bezetting maken</t>
-  </si>
-  <si>
-    <t>Plattegrond opstellen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gegevens analyseren </t>
   </si>
   <si>
@@ -255,6 +246,39 @@
   </si>
   <si>
     <t>40 min</t>
+  </si>
+  <si>
+    <t>voertuigen aanpassen of verwijderen</t>
+  </si>
+  <si>
+    <t>Reservering pagina maken</t>
+  </si>
+  <si>
+    <t>Zorgen dat je een reservering kunt plaatsen</t>
+  </si>
+  <si>
+    <t>Platte grond maken waar plaatsen staan</t>
+  </si>
+  <si>
+    <t>Reservering op dashboard laten zien</t>
+  </si>
+  <si>
+    <t>reservering en gebruiker en auto koppelen</t>
+  </si>
+  <si>
+    <t>kleurcode voor reserveringen</t>
+  </si>
+  <si>
+    <t>1,5 uur</t>
+  </si>
+  <si>
+    <t>stap</t>
+  </si>
+  <si>
+    <t>Stap 1</t>
+  </si>
+  <si>
+    <t>Stap 2</t>
   </si>
 </sst>
 </file>
@@ -316,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -324,6 +348,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -666,459 +691,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBD9DDF-9A40-48FC-931F-B7F2BC064616}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="1" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>6</v>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4">
-        <v>45678</v>
-      </c>
-      <c r="G9" s="4">
-        <v>45678</v>
-      </c>
-      <c r="H9" s="4">
-        <v>45678</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G10" s="4">
+        <v>45678</v>
+      </c>
+      <c r="H10" s="4">
+        <v>45678</v>
+      </c>
+      <c r="I10" s="4">
+        <v>45678</v>
+      </c>
+      <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45678</v>
+      </c>
+      <c r="H11" s="4">
+        <v>45678</v>
+      </c>
+      <c r="I11" s="4">
+        <v>45678</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45678</v>
+      </c>
+      <c r="H12" s="4">
+        <v>45678</v>
+      </c>
+      <c r="I12" s="4">
+        <v>45678</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45678</v>
+      </c>
+      <c r="H13" s="4">
+        <v>45678</v>
+      </c>
+      <c r="I13" s="4">
+        <v>45678</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45678</v>
+      </c>
+      <c r="H15" s="4">
+        <v>45678</v>
+      </c>
+      <c r="I15" s="4">
+        <v>45678</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45678</v>
+      </c>
+      <c r="H16" s="4">
+        <v>45678</v>
+      </c>
+      <c r="I16" s="4">
+        <v>45678</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45678</v>
+      </c>
+      <c r="H17" s="4">
+        <v>45678</v>
+      </c>
+      <c r="I17" s="4">
+        <v>45678</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45684</v>
+      </c>
+      <c r="H18" s="4">
+        <v>45679</v>
+      </c>
+      <c r="I18" s="4">
+        <v>45679</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="G20" s="4">
+        <v>45684</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4">
-        <v>45678</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45678</v>
-      </c>
-      <c r="H10" s="4">
-        <v>45678</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4">
-        <v>45678</v>
-      </c>
-      <c r="G11" s="4">
-        <v>45678</v>
-      </c>
-      <c r="H11" s="4">
-        <v>45678</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4">
-        <v>45678</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45678</v>
-      </c>
-      <c r="H12" s="4">
-        <v>45678</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="4">
-        <v>45678</v>
-      </c>
-      <c r="G14" s="4">
-        <v>45678</v>
-      </c>
-      <c r="H14" s="4">
-        <v>45678</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="4">
-        <v>45678</v>
-      </c>
-      <c r="G15" s="4">
-        <v>45678</v>
-      </c>
-      <c r="H15" s="4">
-        <v>45678</v>
-      </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="4">
-        <v>45678</v>
-      </c>
-      <c r="G16" s="4">
-        <v>45678</v>
-      </c>
-      <c r="H16" s="4">
-        <v>45678</v>
-      </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="4">
         <v>45684</v>
-      </c>
-      <c r="G17" s="4">
-        <v>45679</v>
-      </c>
-      <c r="H17" s="4">
-        <v>45679</v>
-      </c>
-      <c r="I17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="F19" s="4">
-        <v>45684</v>
-      </c>
-      <c r="G19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="4">
-        <v>45684</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45685</v>
-      </c>
-      <c r="H20" s="4">
-        <v>45685</v>
-      </c>
-      <c r="I20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="4">
-        <v>45685</v>
-      </c>
-      <c r="G21" s="4">
-        <v>45685</v>
       </c>
       <c r="H21" s="4">
         <v>45685</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="4">
+        <v>45685</v>
+      </c>
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
         <v>12</v>
       </c>
-      <c r="J21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="4">
-        <v>45684</v>
-      </c>
       <c r="G22" s="4">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="H22" s="4">
         <v>45685</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="4">
+        <v>45685</v>
+      </c>
+      <c r="J22" t="s">
         <v>12</v>
       </c>
-      <c r="J22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="K22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>45684</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
+        <v>45684</v>
+      </c>
+      <c r="I23" s="4">
         <v>45685</v>
       </c>
-      <c r="H23" s="4">
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45684</v>
+      </c>
+      <c r="H24" s="4">
         <v>45685</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I24" s="4">
+        <v>45685</v>
+      </c>
+      <c r="J24" t="s">
         <v>12</v>
       </c>
-      <c r="J23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="C24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
-      <c r="C25" s="1"/>
+      <c r="K24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="4">
-        <v>45688</v>
-      </c>
-      <c r="G25" s="4">
-        <v>45688</v>
-      </c>
-      <c r="H25" s="4">
-        <v>45688</v>
-      </c>
-      <c r="I25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="4">
-        <v>45688</v>
+      <c r="E25" s="1"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
       </c>
       <c r="G26" s="4">
         <v>45688</v>
@@ -1126,365 +1167,495 @@
       <c r="H26" s="4">
         <v>45688</v>
       </c>
-      <c r="I26" t="s">
-        <v>64</v>
+      <c r="I26" s="4">
+        <v>45688</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="4">
+        <v>45688</v>
+      </c>
+      <c r="H27" s="4">
+        <v>45688</v>
+      </c>
+      <c r="I27" s="4">
+        <v>45688</v>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45692</v>
+      </c>
+      <c r="H28" s="4">
+        <v>45692</v>
+      </c>
+      <c r="I28" s="4">
+        <v>45692</v>
+      </c>
+      <c r="J28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="4">
-        <v>45685</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="4">
-        <v>45688</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
-        <v>53</v>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="F31" s="4">
-        <v>45684</v>
-      </c>
-      <c r="G31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="F33" s="4">
-        <v>45684</v>
-      </c>
-      <c r="G33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="G36" s="4">
+        <v>45684</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="E37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="G38" s="4">
+        <v>45684</v>
+      </c>
+      <c r="H38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="E39" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="C51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="5"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="5" t="s">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="C59" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="C61" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J9:J229">
+  <conditionalFormatting sqref="K10:K234">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$J9="x"</formula>
+      <formula>$K10="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gip timingtabel.xlsx
+++ b/gip timingtabel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\OneDrive - PROVIL ION\school\24-25\Gip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E556E7B-C1CB-4B8A-8963-27C225F5EACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD62E772-B3E2-4AEE-B6DB-0A5F79CD5309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
   <si>
     <t>Leerling:</t>
   </si>
@@ -188,12 +188,6 @@
     <t>Oefen online betaling maken</t>
   </si>
   <si>
-    <t>2u</t>
-  </si>
-  <si>
-    <t>tbd</t>
-  </si>
-  <si>
     <t>tbd = to be determined</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t>kleurcode voor reserveringen</t>
   </si>
   <si>
-    <t>1,5 uur</t>
-  </si>
-  <si>
     <t>stap</t>
   </si>
   <si>
@@ -279,6 +270,12 @@
   </si>
   <si>
     <t>Stap 2</t>
+  </si>
+  <si>
+    <t>Indienen stap 1</t>
+  </si>
+  <si>
+    <t>Stap 3</t>
   </si>
 </sst>
 </file>
@@ -340,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -348,7 +345,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -691,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBD9DDF-9A40-48FC-931F-B7F2BC064616}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -742,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -774,24 +770,12 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -824,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -850,7 +834,7 @@
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -876,7 +860,7 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -902,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -936,7 +920,7 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -962,14 +946,14 @@
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" t="s">
@@ -988,14 +972,14 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" t="s">
@@ -1011,10 +995,10 @@
         <v>45679</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
@@ -1036,7 +1020,7 @@
         <v>45684</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
@@ -1044,10 +1028,10 @@
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G21" s="4">
         <v>45684</v>
@@ -1059,7 +1043,7 @@
         <v>45685</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
@@ -1067,7 +1051,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -1085,7 +1069,7 @@
         <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
@@ -1093,7 +1077,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1111,7 +1095,7 @@
         <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
@@ -1119,7 +1103,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1137,14 +1121,14 @@
         <v>12</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="5"/>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="1"/>
       <c r="G25" s="4"/>
@@ -1156,10 +1140,10 @@
       <c r="C26" s="5"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G26" s="4">
         <v>45688</v>
@@ -1171,10 +1155,10 @@
         <v>45688</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
@@ -1182,10 +1166,10 @@
       <c r="C27" s="5"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G27" s="4">
         <v>45688</v>
@@ -1197,10 +1181,10 @@
         <v>45688</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
@@ -1208,10 +1192,10 @@
       <c r="C28" s="5"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G28" s="4">
         <v>45692</v>
@@ -1223,17 +1207,17 @@
         <v>45692</v>
       </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1242,182 +1226,215 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4">
+        <v>45695</v>
+      </c>
+      <c r="H30" s="4">
+        <v>45695</v>
+      </c>
+      <c r="I30" s="4">
+        <v>45695</v>
+      </c>
+      <c r="K30" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="G31" s="4">
+        <v>45695</v>
+      </c>
+      <c r="H31" s="4">
+        <v>45695</v>
+      </c>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45695</v>
+      </c>
+      <c r="H32" s="4">
+        <v>45695</v>
+      </c>
+      <c r="I32" s="4">
+        <v>45695</v>
+      </c>
+      <c r="K32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="G33" s="4">
+        <v>45695</v>
+      </c>
+      <c r="H33" s="4">
+        <v>45695</v>
+      </c>
+      <c r="I33" s="4">
+        <v>45695</v>
+      </c>
+      <c r="K33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="4">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="G35" s="4">
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="G36" s="4">
-        <v>45684</v>
-      </c>
-      <c r="H36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="G38" s="4">
-        <v>45684</v>
-      </c>
-      <c r="H38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E42" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
-      <c r="C43" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -1425,38 +1442,38 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
-      <c r="C50" s="5"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
-      <c r="C51" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="C51" s="5"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="C52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -1464,62 +1481,62 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
-      <c r="C55" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
-      <c r="C59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1528,20 +1545,24 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -1652,8 +1673,20 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="K10:K234">
+  <conditionalFormatting sqref="K10:K236">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$K10="x"</formula>
     </cfRule>
